--- a/Atlas application All heatmaps ver2/data/dataIDconf.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataIDconf.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au281223\Dropbox\Postdoc\ASD\Family history atlas\shiny\Atlas application All heatmaps ver2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C505545-71D5-0044-8D54-1A6095940C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="16152" windowHeight="10236"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -789,7 +800,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -919,6 +930,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -954,6 +982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1129,25 +1174,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BK28" sqref="BK28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,22 +1221,22 @@
         <v>194</v>
       </c>
       <c r="J1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
-      </c>
-      <c r="M1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" t="s">
-        <v>200</v>
       </c>
       <c r="P1" t="s">
         <v>201</v>
@@ -1356,7 +1401,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1373,22 +1418,22 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2">
+        <v>1.8518465757369995</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3.6737389862537384E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1031</v>
+      </c>
+      <c r="M2" s="2">
         <v>1.9299618005752563</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="2">
         <v>6.5944239497184753E-2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>314</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1.8518465757369995</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3.6737389862537384E-2</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1031</v>
       </c>
       <c r="P2" s="2">
         <v>0.96840232610702515</v>
@@ -1529,7 +1574,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1546,22 +1591,22 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2">
+        <v>1.2210608720779419</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.7159987017512321E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1971</v>
+      </c>
+      <c r="M3" s="2">
         <v>1.0049701929092407</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="2">
         <v>3.2755661755800247E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
         <v>1271</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.2210608720779419</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2.7159987017512321E-2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1971</v>
       </c>
       <c r="P3" s="2">
         <v>0.36123067140579224</v>
@@ -1726,7 +1771,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1755,22 +1800,22 @@
         <v>52</v>
       </c>
       <c r="J4" s="2">
+        <v>0.72450655698776245</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.23577389121055603</v>
+      </c>
+      <c r="L4" s="1">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.896636962890625</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="2">
         <v>0.31520488858222961</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>10</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.72450655698776245</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.23577389121055603</v>
-      </c>
-      <c r="O4" s="1">
-        <v>19</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1917,7 +1962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1946,22 +1991,22 @@
         <v>334</v>
       </c>
       <c r="J5" s="2">
+        <v>0.44472306966781616</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.1145504042506218</v>
+      </c>
+      <c r="L5" s="1">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2">
         <v>0.57771342992782593</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="2">
         <v>0.15244477987289429</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>44</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.44472306966781616</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.1145504042506218</v>
-      </c>
-      <c r="O5" s="1">
-        <v>83</v>
       </c>
       <c r="P5" s="2">
         <v>0.18738920986652374</v>
@@ -2120,7 +2165,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2149,22 +2194,22 @@
         <v>555</v>
       </c>
       <c r="J6" s="2">
+        <v>0.78670823574066162</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.10925858467817307</v>
+      </c>
+      <c r="L6" s="1">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2">
         <v>0.86704474687576294</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N6" s="2">
         <v>0.11030280590057373</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6" s="1">
         <v>89</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.78670823574066162</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.10925858467817307</v>
-      </c>
-      <c r="O6" s="1">
-        <v>93</v>
       </c>
       <c r="P6" s="2">
         <v>0.39386942982673645</v>
@@ -2323,7 +2368,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2352,22 +2397,22 @@
         <v>260</v>
       </c>
       <c r="J7" s="2">
+        <v>0.71125555038452148</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.16051362454891205</v>
+      </c>
+      <c r="L7" s="1">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2">
         <v>0.83452659845352173</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>0.1620679497718811</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7" s="1">
         <v>40</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.71125555038452148</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.16051362454891205</v>
-      </c>
-      <c r="O7" s="1">
-        <v>41</v>
       </c>
       <c r="P7" s="2">
         <v>0.39620697498321533</v>
@@ -2526,7 +2571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2555,22 +2600,22 @@
         <v>651</v>
       </c>
       <c r="J8" s="2">
+        <v>1.0253627300262451</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7.5742647051811218E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>191</v>
+      </c>
+      <c r="M8" s="2">
         <v>0.86992555856704712</v>
       </c>
-      <c r="K8" s="2">
+      <c r="N8" s="2">
         <v>6.1252139508724213E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8" s="1">
         <v>302</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1.0253627300262451</v>
-      </c>
-      <c r="N8" s="2">
-        <v>7.5742647051811218E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>191</v>
       </c>
       <c r="P8" s="2">
         <v>0.19045424461364746</v>
@@ -2735,7 +2780,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2764,22 +2809,22 @@
         <v>62</v>
       </c>
       <c r="J9" s="2">
+        <v>0.85883593559265137</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.26952961087226868</v>
+      </c>
+      <c r="L9" s="1">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.92554730176925659</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>0.21550282835960388</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9" s="1">
         <v>23</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.85883593559265137</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.26952961087226868</v>
-      </c>
-      <c r="O9" s="1">
-        <v>14</v>
       </c>
       <c r="P9" s="2">
         <v>0.2724652886390686</v>
@@ -2932,7 +2977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2961,22 +3006,22 @@
         <v>590</v>
       </c>
       <c r="J10" s="2">
+        <v>1.0449271202087402</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7.8938625752925873E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>175</v>
+      </c>
+      <c r="M10" s="2">
         <v>0.83844256401062012</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>6.3761346042156219E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>276</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1.0449271202087402</v>
-      </c>
-      <c r="N10" s="2">
-        <v>7.8938625752925873E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>175</v>
       </c>
       <c r="P10" s="2">
         <v>0.19161829352378845</v>
@@ -3141,7 +3186,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3170,22 +3215,22 @@
         <v>1522</v>
       </c>
       <c r="J11" s="2">
+        <v>0.79260164499282837</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5.3927410393953323E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>395</v>
+      </c>
+      <c r="M11" s="2">
         <v>0.80491006374359131</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N11" s="2">
         <v>4.6097990125417709E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11" s="1">
         <v>563</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.79260164499282837</v>
-      </c>
-      <c r="N11" s="2">
-        <v>5.3927410393953323E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>395</v>
       </c>
       <c r="P11" s="2">
         <v>0.23427480459213257</v>
@@ -3350,7 +3395,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3379,22 +3424,22 @@
         <v>268</v>
       </c>
       <c r="J12" s="2">
+        <v>0.86768972873687744</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.13117685914039612</v>
+      </c>
+      <c r="L12" s="1">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2">
         <v>0.45047691464424133</v>
       </c>
-      <c r="K12" s="2">
+      <c r="N12" s="2">
         <v>0.14562511444091797</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12" s="1">
         <v>50</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.86768972873687744</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.13117685914039612</v>
-      </c>
-      <c r="O12" s="1">
-        <v>60</v>
       </c>
       <c r="P12" s="2">
         <v>1.3692206703126431E-3</v>
@@ -3553,7 +3598,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3582,22 +3627,22 @@
         <v>182</v>
       </c>
       <c r="J13" s="2">
+        <v>0.70975875854492188</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.19566279649734497</v>
+      </c>
+      <c r="L13" s="1">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2">
         <v>0.50018078088760376</v>
       </c>
-      <c r="K13" s="2">
+      <c r="N13" s="2">
         <v>8.7218917906284332E-2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13" s="1">
         <v>139</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.70975875854492188</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.19566279649734497</v>
-      </c>
-      <c r="O13" s="1">
-        <v>27</v>
       </c>
       <c r="P13" s="2">
         <v>0.37601613998413086</v>
@@ -3750,7 +3795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3778,18 +3823,18 @@
       <c r="I14" s="1">
         <v>18</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2">
         <v>0.48747432231903076</v>
       </c>
-      <c r="K14" s="2">
+      <c r="N14" s="2">
         <v>0.14059831202030182</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>52</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
       <c r="P14" s="2">
         <v>0.46516808867454529</v>
       </c>
@@ -3905,7 +3950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -3934,22 +3979,22 @@
         <v>240</v>
       </c>
       <c r="J15" s="2">
+        <v>0.76844924688339233</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.11515866219997406</v>
+      </c>
+      <c r="L15" s="1">
+        <v>80</v>
+      </c>
+      <c r="M15" s="2">
         <v>0.96087098121643066</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
         <v>7.2412192821502686E-2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <v>217</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.76844924688339233</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.11515866219997406</v>
-      </c>
-      <c r="O15" s="1">
-        <v>80</v>
       </c>
       <c r="P15" s="2">
         <v>0.28193399310112</v>
@@ -4114,7 +4159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4143,22 +4188,22 @@
         <v>765</v>
       </c>
       <c r="J16" s="2">
+        <v>1.1030423641204834</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7.4392661452293396E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>195</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.92149686813354492</v>
       </c>
-      <c r="K16" s="2">
+      <c r="N16" s="2">
         <v>0.11516989022493362</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>78</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.1030423641204834</v>
-      </c>
-      <c r="N16" s="2">
-        <v>7.4392661452293396E-2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>195</v>
       </c>
       <c r="P16" s="2">
         <v>0.41848036646842957</v>
@@ -4317,7 +4362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4346,22 +4391,22 @@
         <v>1026</v>
       </c>
       <c r="J17" s="2">
+        <v>1.0865309238433838</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5.328826978802681E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>433</v>
+      </c>
+      <c r="M17" s="2">
         <v>1.1995773315429688</v>
       </c>
-      <c r="K17" s="2">
+      <c r="N17" s="2">
         <v>8.6816422641277313E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="O17" s="1">
         <v>161</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.0865309238433838</v>
-      </c>
-      <c r="N17" s="2">
-        <v>5.328826978802681E-2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>433</v>
       </c>
       <c r="P17" s="2">
         <v>0.48920023441314697</v>
@@ -4508,7 +4553,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4537,22 +4582,22 @@
         <v>2085</v>
       </c>
       <c r="J18" s="2">
+        <v>1.0853292942047119</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.6209005862474442E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1051</v>
+      </c>
+      <c r="M18" s="2">
         <v>1.0932992696762085</v>
       </c>
-      <c r="K18" s="2">
+      <c r="N18" s="2">
         <v>5.2592914551496506E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18" s="1">
         <v>452</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1.0853292942047119</v>
-      </c>
-      <c r="N18" s="2">
-        <v>3.6209005862474442E-2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1051</v>
       </c>
       <c r="P18" s="2">
         <v>0.44115525484085083</v>
@@ -4717,7 +4762,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4746,22 +4791,22 @@
         <v>1630</v>
       </c>
       <c r="J19" s="2">
+        <v>1.107815146446228</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4.2714916169643402E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>747</v>
+      </c>
+      <c r="M19" s="2">
         <v>1.1413089036941528</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
         <v>6.7829035222530365E-2</v>
       </c>
-      <c r="L19" s="1">
+      <c r="O19" s="1">
         <v>276</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1.107815146446228</v>
-      </c>
-      <c r="N19" s="2">
-        <v>4.2714916169643402E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>747</v>
       </c>
       <c r="P19" s="2">
         <v>0.5319867730140686</v>
@@ -4902,7 +4947,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4931,22 +4976,22 @@
         <v>336</v>
       </c>
       <c r="J20" s="2">
+        <v>1.0352218151092529</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.10500034689903259</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2">
         <v>0.80394762754440308</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N20" s="2">
         <v>0.26160061359405518</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="1">
         <v>15</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.0352218151092529</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.10500034689903259</v>
-      </c>
-      <c r="O20" s="1">
-        <v>100</v>
       </c>
       <c r="P20" s="2">
         <v>1.3219513893127441</v>
@@ -5045,7 +5090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -5074,22 +5119,22 @@
         <v>263</v>
       </c>
       <c r="J21" s="2">
+        <v>0.70142596960067749</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.13495036959648132</v>
+      </c>
+      <c r="L21" s="1">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2">
         <v>0.88845986127853394</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N21" s="2">
         <v>0.11773296445608139</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21" s="1">
         <v>75</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.70142596960067749</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.13495036959648132</v>
-      </c>
-      <c r="O21" s="1">
-        <v>60</v>
       </c>
       <c r="P21" s="2">
         <v>0.32997772097587585</v>
@@ -5248,7 +5293,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -5277,22 +5322,22 @@
         <v>81</v>
       </c>
       <c r="J22" s="2">
+        <v>0.18630312383174896</v>
+      </c>
+      <c r="K22" s="2">
+        <v>8.084423840045929E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>158</v>
+      </c>
+      <c r="M22" s="2">
         <v>0.34859740734100342</v>
       </c>
-      <c r="K22" s="2">
+      <c r="N22" s="2">
         <v>7.5134120881557465E-2</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22" s="1">
         <v>185</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.18630312383174896</v>
-      </c>
-      <c r="N22" s="2">
-        <v>8.084423840045929E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>158</v>
       </c>
       <c r="P22" s="2">
         <v>-3.6659572273492813E-2</v>
@@ -5451,7 +5496,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -5462,7 +5507,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="2">
-        <v>0.28140640258789063</v>
+        <v>0.28140640258789062</v>
       </c>
       <c r="E23" s="2">
         <v>0.20583780109882355</v>
@@ -5480,22 +5525,22 @@
         <v>82</v>
       </c>
       <c r="J23" s="2">
+        <v>0.18382558226585388</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9.724590927362442E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>108</v>
+      </c>
+      <c r="M23" s="2">
         <v>0.16040709614753723</v>
       </c>
-      <c r="K23" s="2">
+      <c r="N23" s="2">
         <v>0.10343456268310547</v>
       </c>
-      <c r="L23" s="1">
+      <c r="O23" s="1">
         <v>96</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.18382558226585388</v>
-      </c>
-      <c r="N23" s="2">
-        <v>9.724590927362442E-2</v>
-      </c>
-      <c r="O23" s="1">
-        <v>108</v>
       </c>
       <c r="P23" s="2">
         <v>-1.8482830375432968E-2</v>
@@ -5648,7 +5693,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -5677,22 +5722,22 @@
         <v>53</v>
       </c>
       <c r="J24" s="2">
+        <v>3.1604021787643433E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.14510621130466461</v>
+      </c>
+      <c r="L24" s="1">
+        <v>48</v>
+      </c>
+      <c r="M24" s="2">
         <v>-0.19604659080505371</v>
       </c>
-      <c r="K24" s="2">
+      <c r="N24" s="2">
         <v>0.17205077409744263</v>
       </c>
-      <c r="L24" s="1">
+      <c r="O24" s="1">
         <v>34</v>
-      </c>
-      <c r="M24" s="2">
-        <v>3.1604021787643433E-2</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.14510621130466461</v>
-      </c>
-      <c r="O24" s="1">
-        <v>48</v>
       </c>
       <c r="P24" s="2">
         <v>-0.13506555557250977</v>
@@ -5845,7 +5890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -5874,22 +5919,22 @@
         <v>31</v>
       </c>
       <c r="J25" s="2">
+        <v>0.55928361415863037</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.2903188169002533</v>
+      </c>
+      <c r="L25" s="1">
+        <v>12</v>
+      </c>
+      <c r="M25" s="2">
         <v>0.61384046077728271</v>
       </c>
-      <c r="K25" s="2">
+      <c r="N25" s="2">
         <v>0.26729047298431396</v>
       </c>
-      <c r="L25" s="1">
+      <c r="O25" s="1">
         <v>14</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.55928361415863037</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.2903188169002533</v>
-      </c>
-      <c r="O25" s="1">
-        <v>12</v>
       </c>
       <c r="P25" s="2">
         <v>-8.3222510293126106E-3</v>
@@ -6042,7 +6087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -6065,22 +6110,22 @@
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2">
+        <v>0.17509174346923828</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.13566797971725464</v>
+      </c>
+      <c r="L26" s="1">
+        <v>56</v>
+      </c>
+      <c r="M26" s="2">
         <v>0.57979398965835571</v>
       </c>
-      <c r="K26" s="2">
+      <c r="N26" s="2">
         <v>0.10100799798965454</v>
       </c>
-      <c r="L26" s="1">
+      <c r="O26" s="1">
         <v>102</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.17509174346923828</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.13566797971725464</v>
-      </c>
-      <c r="O26" s="1">
-        <v>56</v>
       </c>
       <c r="P26" s="2">
         <v>-4.129280149936676E-2</v>
@@ -6221,7 +6266,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -6250,25 +6295,25 @@
         <v>300</v>
       </c>
       <c r="J27" s="2">
+        <v>0.51145994663238525</v>
+      </c>
+      <c r="K27" s="2">
+        <v>8.9802294969558716E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>131</v>
+      </c>
+      <c r="M27" s="2">
         <v>0.29269292950630188</v>
       </c>
-      <c r="K27" s="2">
+      <c r="N27" s="2">
         <v>6.232747808098793E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="O27" s="1">
         <v>300</v>
       </c>
-      <c r="M27" s="2">
-        <v>0.51145994663238525</v>
-      </c>
-      <c r="N27" s="2">
-        <v>8.9802294969558716E-2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>131</v>
-      </c>
       <c r="P27" s="2">
-        <v>0.12970352172851563</v>
+        <v>0.12970352172851562</v>
       </c>
       <c r="Q27" s="2">
         <v>8.0260179936885834E-2</v>
@@ -6430,7 +6475,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -6459,22 +6504,22 @@
         <v>45</v>
       </c>
       <c r="J28" s="2">
+        <v>-0.16038908064365387</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.23664185404777527</v>
+      </c>
+      <c r="L28" s="1">
+        <v>18</v>
+      </c>
+      <c r="M28" s="2">
         <v>4.6672198921442032E-2</v>
       </c>
-      <c r="K28" s="2">
+      <c r="N28" s="2">
         <v>0.12195219844579697</v>
       </c>
-      <c r="L28" s="1">
+      <c r="O28" s="1">
         <v>71</v>
-      </c>
-      <c r="M28" s="2">
-        <v>-0.16038908064365387</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.23664185404777527</v>
-      </c>
-      <c r="O28" s="1">
-        <v>18</v>
       </c>
       <c r="P28" s="2">
         <v>-0.26683574914932251</v>
@@ -6633,7 +6678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -6662,22 +6707,22 @@
         <v>45</v>
       </c>
       <c r="J29" s="2">
+        <v>-0.16670078039169312</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.26817095279693604</v>
+      </c>
+      <c r="L29" s="1">
+        <v>14</v>
+      </c>
+      <c r="M29" s="2">
         <v>-6.8272791802883148E-2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="N29" s="2">
         <v>0.25910279154777527</v>
       </c>
-      <c r="L29" s="1">
+      <c r="O29" s="1">
         <v>15</v>
-      </c>
-      <c r="M29" s="2">
-        <v>-0.16670078039169312</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.26817095279693604</v>
-      </c>
-      <c r="O29" s="1">
-        <v>14</v>
       </c>
       <c r="P29" s="2">
         <v>4.3766908347606659E-2</v>
@@ -6830,7 +6875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -6852,18 +6897,18 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="2">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="2">
         <v>9.9176272749900818E-2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="N30" s="2">
         <v>0.13174596428871155</v>
       </c>
-      <c r="L30" s="1">
+      <c r="O30" s="1">
         <v>61</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="1"/>
       <c r="P30" s="2">
         <v>-0.29441693425178528</v>
       </c>
@@ -6985,7 +7030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -7007,18 +7052,18 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="2">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="2">
         <v>0.12057302892208099</v>
       </c>
-      <c r="K31" s="2">
+      <c r="N31" s="2">
         <v>0.14522026479244232</v>
       </c>
-      <c r="L31" s="1">
+      <c r="O31" s="1">
         <v>50</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="1"/>
       <c r="P31" s="2">
         <v>-0.20439471304416656</v>
       </c>
@@ -7140,7 +7185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -7169,22 +7214,22 @@
         <v>550</v>
       </c>
       <c r="J32" s="2">
+        <v>0.11637198925018311</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2.8485242277383804E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1447</v>
+      </c>
+      <c r="M32" s="2">
         <v>0.10703063011169434</v>
       </c>
-      <c r="K32" s="2">
+      <c r="N32" s="2">
         <v>3.230324387550354E-2</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O32" s="1">
         <v>1097</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.11637198925018311</v>
-      </c>
-      <c r="N32" s="2">
-        <v>2.8485242277383804E-2</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1447</v>
       </c>
       <c r="P32" s="2">
         <v>2.7678206562995911E-2</v>
@@ -7349,7 +7394,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -7378,22 +7423,22 @@
         <v>21</v>
       </c>
       <c r="J33" s="2">
+        <v>0.26565700769424438</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.13151641190052032</v>
+      </c>
+      <c r="L33" s="1">
+        <v>59</v>
+      </c>
+      <c r="M33" s="2">
         <v>2.1186888217926025E-2</v>
       </c>
-      <c r="K33" s="2">
+      <c r="N33" s="2">
         <v>0.16124929487705231</v>
       </c>
-      <c r="L33" s="1">
+      <c r="O33" s="1">
         <v>39</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.26565700769424438</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.13151641190052032</v>
-      </c>
-      <c r="O33" s="1">
-        <v>59</v>
       </c>
       <c r="P33" s="2">
         <v>-0.19365391135215759</v>
@@ -7546,7 +7591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -7575,22 +7620,22 @@
         <v>17</v>
       </c>
       <c r="J34" s="2">
+        <v>-0.12454310059547424</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.15337297320365906</v>
+      </c>
+      <c r="L34" s="1">
+        <v>43</v>
+      </c>
+      <c r="M34" s="2">
         <v>-0.19052423536777496</v>
       </c>
-      <c r="K34" s="2">
+      <c r="N34" s="2">
         <v>0.17204946279525757</v>
       </c>
-      <c r="L34" s="1">
+      <c r="O34" s="1">
         <v>34</v>
-      </c>
-      <c r="M34" s="2">
-        <v>-0.12454310059547424</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.15337297320365906</v>
-      </c>
-      <c r="O34" s="1">
-        <v>43</v>
       </c>
       <c r="P34" s="2">
         <v>-0.17565746605396271</v>
@@ -7743,7 +7788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -7772,22 +7817,22 @@
         <v>75</v>
       </c>
       <c r="J35" s="2">
+        <v>-0.16841982305049896</v>
+      </c>
+      <c r="K35" s="2">
+        <v>9.6099033951759338E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>114</v>
+      </c>
+      <c r="M35" s="2">
         <v>9.2850387096405029E-2</v>
       </c>
-      <c r="K35" s="2">
+      <c r="N35" s="2">
         <v>8.1843405961990356E-2</v>
       </c>
-      <c r="L35" s="1">
+      <c r="O35" s="1">
         <v>153</v>
-      </c>
-      <c r="M35" s="2">
-        <v>-0.16841982305049896</v>
-      </c>
-      <c r="N35" s="2">
-        <v>9.6099033951759338E-2</v>
-      </c>
-      <c r="O35" s="1">
-        <v>114</v>
       </c>
       <c r="P35" s="2">
         <v>-4.9507543444633484E-3</v>
@@ -7940,7 +7985,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -7969,22 +8014,22 @@
         <v>46</v>
       </c>
       <c r="J36" s="2">
+        <v>0.10366600751876831</v>
+      </c>
+      <c r="K36" s="2">
+        <v>6.51974156498909E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>248</v>
+      </c>
+      <c r="M36" s="2">
         <v>0.10214041173458099</v>
       </c>
-      <c r="K36" s="2">
+      <c r="N36" s="2">
         <v>6.7016415297985077E-2</v>
       </c>
-      <c r="L36" s="1">
+      <c r="O36" s="1">
         <v>235</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.10366600751876831</v>
-      </c>
-      <c r="N36" s="2">
-        <v>6.51974156498909E-2</v>
-      </c>
-      <c r="O36" s="1">
-        <v>248</v>
       </c>
       <c r="P36" s="2">
         <v>6.6905476152896881E-2</v>
@@ -8149,7 +8194,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -8166,22 +8211,22 @@
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2">
+        <v>0.20896458625793457</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.14759519696235657</v>
+      </c>
+      <c r="L37" s="1">
+        <v>46</v>
+      </c>
+      <c r="M37" s="2">
         <v>7.5288385152816772E-2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="N37" s="2">
         <v>0.18334020674228668</v>
       </c>
-      <c r="L37" s="1">
+      <c r="O37" s="1">
         <v>30</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.20896458625793457</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.14759519696235657</v>
-      </c>
-      <c r="O37" s="1">
-        <v>46</v>
       </c>
       <c r="P37" s="2">
         <v>-0.35033094882965088</v>
@@ -8340,7 +8385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -8357,22 +8402,22 @@
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2">
+        <v>1.8133271485567093E-2</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.15482038259506226</v>
+      </c>
+      <c r="L38" s="1">
+        <v>42</v>
+      </c>
+      <c r="M38" s="2">
         <v>0.25052523612976074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>0.16475385427474976</v>
       </c>
-      <c r="L38" s="1">
+      <c r="O38" s="1">
         <v>38</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1.8133271485567093E-2</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0.15482038259506226</v>
-      </c>
-      <c r="O38" s="1">
-        <v>42</v>
       </c>
       <c r="P38" s="2">
         <v>0.14434148371219635</v>
@@ -8513,7 +8558,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -8542,22 +8587,22 @@
         <v>35</v>
       </c>
       <c r="J39" s="2">
+        <v>0.19214083254337311</v>
+      </c>
+      <c r="K39" s="2">
+        <v>8.3651728928089142E-2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>147</v>
+      </c>
+      <c r="M39" s="2">
         <v>0.22099727392196655</v>
       </c>
-      <c r="K39" s="2">
+      <c r="N39" s="2">
         <v>0.11515452712774277</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O39" s="1">
         <v>76</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0.19214083254337311</v>
-      </c>
-      <c r="N39" s="2">
-        <v>8.3651728928089142E-2</v>
-      </c>
-      <c r="O39" s="1">
-        <v>147</v>
       </c>
       <c r="P39" s="2">
         <v>0.28036069869995117</v>
@@ -8716,7 +8761,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -8745,22 +8790,22 @@
         <v>147</v>
       </c>
       <c r="J40" s="2">
+        <v>1.6042927280068398E-2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>4.378732293844223E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>558</v>
+      </c>
+      <c r="M40" s="2">
         <v>-0.17681494355201721</v>
       </c>
-      <c r="K40" s="2">
+      <c r="N40" s="2">
         <v>0.22401049733161926</v>
       </c>
-      <c r="L40" s="1">
+      <c r="O40" s="1">
         <v>20</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1.6042927280068398E-2</v>
-      </c>
-      <c r="N40" s="2">
-        <v>4.378732293844223E-2</v>
-      </c>
-      <c r="O40" s="1">
-        <v>558</v>
       </c>
       <c r="P40" s="2">
         <v>0.47605407238006592</v>
@@ -8919,7 +8964,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -8948,22 +8993,22 @@
         <v>23</v>
       </c>
       <c r="J41" s="2">
+        <v>-0.10458911210298538</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.12269072234630585</v>
+      </c>
+      <c r="L41" s="1">
+        <v>68</v>
+      </c>
+      <c r="M41" s="2">
         <v>3.1053166836500168E-2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="N41" s="2">
         <v>0.14371097087860107</v>
       </c>
-      <c r="L41" s="1">
+      <c r="O41" s="1">
         <v>50</v>
-      </c>
-      <c r="M41" s="2">
-        <v>-0.10458911210298538</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.12269072234630585</v>
-      </c>
-      <c r="O41" s="1">
-        <v>68</v>
       </c>
       <c r="P41" s="2">
         <v>1.934337429702282E-2</v>
@@ -9116,7 +9161,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -9145,22 +9190,22 @@
         <v>315</v>
       </c>
       <c r="J42" s="2">
+        <v>0.1632550060749054</v>
+      </c>
+      <c r="K42" s="2">
+        <v>4.1173547506332397E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>637</v>
+      </c>
+      <c r="M42" s="2">
         <v>0.10471376031637192</v>
       </c>
-      <c r="K42" s="2">
+      <c r="N42" s="2">
         <v>4.2326312512159348E-2</v>
       </c>
-      <c r="L42" s="1">
+      <c r="O42" s="1">
         <v>602</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0.1632550060749054</v>
-      </c>
-      <c r="N42" s="2">
-        <v>4.1173547506332397E-2</v>
-      </c>
-      <c r="O42" s="1">
-        <v>637</v>
       </c>
       <c r="P42" s="2">
         <v>9.5008142292499542E-2</v>
@@ -9325,7 +9370,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -9354,22 +9399,22 @@
         <v>28</v>
       </c>
       <c r="J43" s="2">
+        <v>-6.5301768481731415E-2</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.15452860295772552</v>
+      </c>
+      <c r="L43" s="1">
+        <v>42</v>
+      </c>
+      <c r="M43" s="2">
         <v>0.14972585439682007</v>
       </c>
-      <c r="K43" s="2">
+      <c r="N43" s="2">
         <v>0.11933013796806335</v>
       </c>
-      <c r="L43" s="1">
+      <c r="O43" s="1">
         <v>71</v>
-      </c>
-      <c r="M43" s="2">
-        <v>-6.5301768481731415E-2</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.15452860295772552</v>
-      </c>
-      <c r="O43" s="1">
-        <v>42</v>
       </c>
       <c r="P43" s="2">
         <v>-0.14233386516571045</v>
@@ -9522,7 +9567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -9551,22 +9596,22 @@
         <v>128</v>
       </c>
       <c r="J44" s="2">
+        <v>0.22938640415668488</v>
+      </c>
+      <c r="K44" s="2">
+        <v>8.672691136598587E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>143</v>
+      </c>
+      <c r="M44" s="2">
         <v>0.2165854275226593</v>
       </c>
-      <c r="K44" s="2">
+      <c r="N44" s="2">
         <v>9.0872481465339661E-2</v>
       </c>
-      <c r="L44" s="1">
+      <c r="O44" s="1">
         <v>125</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0.22938640415668488</v>
-      </c>
-      <c r="N44" s="2">
-        <v>8.672691136598587E-2</v>
-      </c>
-      <c r="O44" s="1">
-        <v>143</v>
       </c>
       <c r="P44" s="2">
         <v>0.38537248969078064</v>
@@ -9731,7 +9776,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -9745,7 +9790,7 @@
         <v>1.0980337858200073</v>
       </c>
       <c r="E45" s="2">
-        <v>0.28073501586914063</v>
+        <v>0.28073501586914062</v>
       </c>
       <c r="F45" s="1">
         <v>17</v>
@@ -9760,22 +9805,22 @@
         <v>36</v>
       </c>
       <c r="J45" s="2">
+        <v>0.23415035009384155</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.14278124272823334</v>
+      </c>
+      <c r="L45" s="1">
+        <v>53</v>
+      </c>
+      <c r="M45" s="2">
         <v>0.32206398248672485</v>
       </c>
-      <c r="K45" s="2">
+      <c r="N45" s="2">
         <v>0.14146065711975098</v>
       </c>
-      <c r="L45" s="1">
+      <c r="O45" s="1">
         <v>51</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0.23415035009384155</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.14278124272823334</v>
-      </c>
-      <c r="O45" s="1">
-        <v>53</v>
       </c>
       <c r="P45" s="2">
         <v>0.10816331952810287</v>
@@ -9922,7 +9967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -9951,22 +9996,22 @@
         <v>829</v>
       </c>
       <c r="J46" s="2">
+        <v>0.24140374362468719</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3.9279825985431671E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>734</v>
+      </c>
+      <c r="M46" s="2">
         <v>0.26431393623352051</v>
       </c>
-      <c r="K46" s="2">
+      <c r="N46" s="2">
         <v>4.1439544409513474E-2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="O46" s="1">
         <v>657</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0.24140374362468719</v>
-      </c>
-      <c r="N46" s="2">
-        <v>3.9279825985431671E-2</v>
-      </c>
-      <c r="O46" s="1">
-        <v>734</v>
       </c>
       <c r="P46" s="2">
         <v>0.25634664297103882</v>
@@ -10131,7 +10176,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -10160,22 +10205,22 @@
         <v>31</v>
       </c>
       <c r="J47" s="2">
+        <v>-7.339901477098465E-2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.1317218542098999</v>
+      </c>
+      <c r="L47" s="1">
+        <v>58</v>
+      </c>
+      <c r="M47" s="2">
         <v>0.175538569688797</v>
       </c>
-      <c r="K47" s="2">
+      <c r="N47" s="2">
         <v>0.13800069689750671</v>
       </c>
-      <c r="L47" s="1">
+      <c r="O47" s="1">
         <v>56</v>
-      </c>
-      <c r="M47" s="2">
-        <v>-7.339901477098465E-2</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.1317218542098999</v>
-      </c>
-      <c r="O47" s="1">
-        <v>58</v>
       </c>
       <c r="P47" s="2">
         <v>0.23062014579772949</v>
@@ -10328,7 +10373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -10350,18 +10395,18 @@
       <c r="I48" s="1">
         <v>5</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="2">
         <v>0.32345134019851685</v>
       </c>
-      <c r="K48" s="2">
+      <c r="N48" s="2">
         <v>0.44599014520645142</v>
       </c>
-      <c r="L48" s="1">
+      <c r="O48" s="1">
         <v>5</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="1"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="1"/>
@@ -10465,7 +10510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -10494,22 +10539,22 @@
         <v>29</v>
       </c>
       <c r="J49" s="2">
+        <v>-5.8880291879177094E-2</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.30323925614356995</v>
+      </c>
+      <c r="L49" s="1">
+        <v>11</v>
+      </c>
+      <c r="M49" s="2">
         <v>0.68744951486587524</v>
       </c>
-      <c r="K49" s="2">
+      <c r="N49" s="2">
         <v>0.2314295768737793</v>
       </c>
-      <c r="L49" s="1">
+      <c r="O49" s="1">
         <v>19</v>
-      </c>
-      <c r="M49" s="2">
-        <v>-5.8880291879177094E-2</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.30323925614356995</v>
-      </c>
-      <c r="O49" s="1">
-        <v>11</v>
       </c>
       <c r="P49" s="2">
         <v>0.31642448902130127</v>
@@ -10656,7 +10701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -10757,7 +10802,7 @@
       <c r="BP50" s="2"/>
       <c r="BQ50" s="1"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -10779,18 +10824,18 @@
       <c r="I51" s="1">
         <v>9</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="2">
         <v>0.14109289646148682</v>
       </c>
-      <c r="K51" s="2">
+      <c r="N51" s="2">
         <v>0.37992706894874573</v>
       </c>
-      <c r="L51" s="1">
+      <c r="O51" s="1">
         <v>7</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="1"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="1"/>
@@ -10930,7 +10975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -10959,22 +11004,22 @@
         <v>596</v>
       </c>
       <c r="J52" s="2">
+        <v>0.30818471312522888</v>
+      </c>
+      <c r="K52" s="2">
+        <v>4.7269903123378754E-2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>495</v>
+      </c>
+      <c r="M52" s="2">
         <v>0.28257504105567932</v>
       </c>
-      <c r="K52" s="2">
+      <c r="N52" s="2">
         <v>4.9695961177349091E-2</v>
       </c>
-      <c r="L52" s="1">
+      <c r="O52" s="1">
         <v>440</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0.30818471312522888</v>
-      </c>
-      <c r="N52" s="2">
-        <v>4.7269903123378754E-2</v>
-      </c>
-      <c r="O52" s="1">
-        <v>495</v>
       </c>
       <c r="P52" s="2">
         <v>0.31021493673324585</v>
@@ -11139,7 +11184,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -11168,22 +11213,22 @@
         <v>379</v>
       </c>
       <c r="J53" s="2">
+        <v>0.25016361474990845</v>
+      </c>
+      <c r="K53" s="2">
+        <v>6.2160681933164597E-2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>282</v>
+      </c>
+      <c r="M53" s="2">
         <v>0.26601943373680115</v>
       </c>
-      <c r="K53" s="2">
+      <c r="N53" s="2">
         <v>6.6314488649368286E-2</v>
       </c>
-      <c r="L53" s="1">
+      <c r="O53" s="1">
         <v>241</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0.25016361474990845</v>
-      </c>
-      <c r="N53" s="2">
-        <v>6.2160681933164597E-2</v>
-      </c>
-      <c r="O53" s="1">
-        <v>282</v>
       </c>
       <c r="P53" s="2">
         <v>0.30026137828826904</v>
@@ -11348,7 +11393,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -11377,22 +11422,22 @@
         <v>70</v>
       </c>
       <c r="J54" s="2">
+        <v>0.16802379488945007</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.13690359890460968</v>
+      </c>
+      <c r="L54" s="1">
+        <v>55</v>
+      </c>
+      <c r="M54" s="2">
         <v>0.25509119033813477</v>
       </c>
-      <c r="K54" s="2">
+      <c r="N54" s="2">
         <v>0.12629380822181702</v>
       </c>
-      <c r="L54" s="1">
+      <c r="O54" s="1">
         <v>65</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0.16802379488945007</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0.13690359890460968</v>
-      </c>
-      <c r="O54" s="1">
-        <v>55</v>
       </c>
       <c r="P54" s="2">
         <v>0.1037159338593483</v>
@@ -11545,7 +11590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -11574,22 +11619,22 @@
         <v>15</v>
       </c>
       <c r="J55" s="2">
+        <v>-0.24111752212047577</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.40971231460571289</v>
+      </c>
+      <c r="L55" s="1">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2">
         <v>0.13919828832149506</v>
       </c>
-      <c r="K55" s="2">
+      <c r="N55" s="2">
         <v>0.35450318455696106</v>
       </c>
-      <c r="L55" s="1">
+      <c r="O55" s="1">
         <v>8</v>
-      </c>
-      <c r="M55" s="2">
-        <v>-0.24111752212047577</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.40971231460571289</v>
-      </c>
-      <c r="O55" s="1">
-        <v>6</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -11730,7 +11775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -11759,22 +11804,22 @@
         <v>23</v>
       </c>
       <c r="J56" s="2">
+        <v>0.47116628289222717</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.20103229582309723</v>
+      </c>
+      <c r="L56" s="1">
+        <v>25</v>
+      </c>
+      <c r="M56" s="2">
         <v>2.3114096373319626E-2</v>
       </c>
-      <c r="K56" s="2">
+      <c r="N56" s="2">
         <v>0.33175122737884521</v>
       </c>
-      <c r="L56" s="1">
+      <c r="O56" s="1">
         <v>9</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0.47116628289222717</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0.20103229582309723</v>
-      </c>
-      <c r="O56" s="1">
-        <v>25</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -11921,7 +11966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -11950,22 +11995,22 @@
         <v>80</v>
       </c>
       <c r="J57" s="2">
+        <v>8.5928387939929962E-2</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.11024168878793716</v>
+      </c>
+      <c r="L57" s="1">
+        <v>87</v>
+      </c>
+      <c r="M57" s="2">
         <v>0.17717939615249634</v>
       </c>
-      <c r="K57" s="2">
+      <c r="N57" s="2">
         <v>0.12691698968410492</v>
       </c>
-      <c r="L57" s="1">
+      <c r="O57" s="1">
         <v>65</v>
-      </c>
-      <c r="M57" s="2">
-        <v>8.5928387939929962E-2</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0.11024168878793716</v>
-      </c>
-      <c r="O57" s="1">
-        <v>87</v>
       </c>
       <c r="P57" s="2">
         <v>-0.27069452404975891</v>
@@ -12124,7 +12169,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -12153,22 +12198,22 @@
         <v>186</v>
       </c>
       <c r="J58" s="2">
+        <v>0.24526757001876831</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.10166315734386444</v>
+      </c>
+      <c r="L58" s="1">
+        <v>102</v>
+      </c>
+      <c r="M58" s="2">
         <v>0.15760576725006104</v>
       </c>
-      <c r="K58" s="2">
+      <c r="N58" s="2">
         <v>0.11548468470573425</v>
       </c>
-      <c r="L58" s="1">
+      <c r="O58" s="1">
         <v>76</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0.24526757001876831</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0.10166315734386444</v>
-      </c>
-      <c r="O58" s="1">
-        <v>102</v>
       </c>
       <c r="P58" s="2">
         <v>0.21143954992294312</v>
@@ -12321,7 +12366,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -12350,22 +12395,22 @@
         <v>53</v>
       </c>
       <c r="J59" s="2">
+        <v>3.1604021787643433E-2</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.14510621130466461</v>
+      </c>
+      <c r="L59" s="1">
+        <v>48</v>
+      </c>
+      <c r="M59" s="2">
         <v>-0.19604659080505371</v>
       </c>
-      <c r="K59" s="2">
+      <c r="N59" s="2">
         <v>0.17205077409744263</v>
       </c>
-      <c r="L59" s="1">
+      <c r="O59" s="1">
         <v>34</v>
-      </c>
-      <c r="M59" s="2">
-        <v>3.1604021787643433E-2</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0.14510621130466461</v>
-      </c>
-      <c r="O59" s="1">
-        <v>48</v>
       </c>
       <c r="P59" s="2">
         <v>-0.13506555557250977</v>
@@ -12518,7 +12563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -12546,18 +12591,18 @@
       <c r="I60" s="1">
         <v>6</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="2">
         <v>-5.0330575555562973E-2</v>
       </c>
-      <c r="K60" s="2">
+      <c r="N60" s="2">
         <v>0.33411049842834473</v>
       </c>
-      <c r="L60" s="1">
+      <c r="O60" s="1">
         <v>9</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="1"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="1"/>
@@ -12691,7 +12736,7 @@
       <c r="BP60" s="2"/>
       <c r="BQ60" s="1"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -12719,18 +12764,18 @@
       <c r="I61" s="1">
         <v>8</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2">
         <v>0.58822798728942871</v>
       </c>
-      <c r="K61" s="2">
+      <c r="N61" s="2">
         <v>0.25792050361633301</v>
       </c>
-      <c r="L61" s="1">
+      <c r="O61" s="1">
         <v>15</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="1"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="1"/>
@@ -12828,7 +12873,7 @@
       <c r="BP61" s="2"/>
       <c r="BQ61" s="1"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -12959,7 +13004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -12988,22 +13033,22 @@
         <v>7</v>
       </c>
       <c r="J63" s="2">
+        <v>4.5248037204146385E-3</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.44970500469207764</v>
+      </c>
+      <c r="L63" s="1">
+        <v>5</v>
+      </c>
+      <c r="M63" s="2">
         <v>0.17143216729164124</v>
       </c>
-      <c r="K63" s="2">
+      <c r="N63" s="2">
         <v>0.30277398228645325</v>
       </c>
-      <c r="L63" s="1">
+      <c r="O63" s="1">
         <v>11</v>
-      </c>
-      <c r="M63" s="2">
-        <v>4.5248037204146385E-3</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0.44970500469207764</v>
-      </c>
-      <c r="O63" s="1">
-        <v>5</v>
       </c>
       <c r="P63" s="2">
         <v>0.14956982433795929</v>
@@ -13156,7 +13201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -13185,22 +13230,22 @@
         <v>21</v>
       </c>
       <c r="J64" s="2">
+        <v>0.26904180645942688</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.15697067975997925</v>
+      </c>
+      <c r="L64" s="1">
+        <v>41</v>
+      </c>
+      <c r="M64" s="2">
         <v>0.27344712615013123</v>
       </c>
-      <c r="K64" s="2">
+      <c r="N64" s="2">
         <v>0.13700033724308014</v>
       </c>
-      <c r="L64" s="1">
+      <c r="O64" s="1">
         <v>54</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0.26904180645942688</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0.15697067975997925</v>
-      </c>
-      <c r="O64" s="1">
-        <v>41</v>
       </c>
       <c r="P64" s="2">
         <v>0.28253993391990662</v>
@@ -13341,7 +13386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -13436,7 +13481,7 @@
       <c r="BP65" s="2"/>
       <c r="BQ65" s="1"/>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -13537,7 +13582,7 @@
       <c r="BP66" s="2"/>
       <c r="BQ66" s="1"/>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -13644,7 +13689,7 @@
       <c r="BP67" s="2"/>
       <c r="BQ67" s="1"/>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -13775,7 +13820,7 @@
       <c r="BP68" s="2"/>
       <c r="BQ68" s="1"/>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -13888,7 +13933,7 @@
       <c r="BP69" s="2"/>
       <c r="BQ69" s="1"/>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -14031,7 +14076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -14108,7 +14153,7 @@
       <c r="BP71" s="2"/>
       <c r="BQ71" s="1"/>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -14137,22 +14182,22 @@
         <v>25</v>
       </c>
       <c r="J72" s="2">
+        <v>0.11901871860027313</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0.20068554580211639</v>
+      </c>
+      <c r="L72" s="1">
+        <v>26</v>
+      </c>
+      <c r="M72" s="2">
         <v>0.34813916683197021</v>
       </c>
-      <c r="K72" s="2">
+      <c r="N72" s="2">
         <v>0.15313751995563507</v>
       </c>
-      <c r="L72" s="1">
+      <c r="O72" s="1">
         <v>43</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0.11901871860027313</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0.20068554580211639</v>
-      </c>
-      <c r="O72" s="1">
-        <v>26</v>
       </c>
       <c r="P72" s="2">
         <v>0.41702032089233398</v>
@@ -14299,7 +14344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -14328,22 +14373,22 @@
         <v>37</v>
       </c>
       <c r="J73" s="2">
+        <v>-0.35821861028671265</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.27763381600379944</v>
+      </c>
+      <c r="L73" s="1">
+        <v>13</v>
+      </c>
+      <c r="M73" s="2">
         <v>4.1846103966236115E-2</v>
       </c>
-      <c r="K73" s="2">
+      <c r="N73" s="2">
         <v>0.21908180415630341</v>
       </c>
-      <c r="L73" s="1">
+      <c r="O73" s="1">
         <v>21</v>
-      </c>
-      <c r="M73" s="2">
-        <v>-0.35821861028671265</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0.27763381600379944</v>
-      </c>
-      <c r="O73" s="1">
-        <v>13</v>
       </c>
       <c r="P73" s="2">
         <v>0.57947242259979248</v>
@@ -14496,7 +14541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -14525,22 +14570,22 @@
         <v>39</v>
       </c>
       <c r="J74" s="2">
+        <v>-0.16382211446762085</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.23625512421131134</v>
+      </c>
+      <c r="L74" s="1">
+        <v>18</v>
+      </c>
+      <c r="M74" s="2">
         <v>0.14091236889362335</v>
       </c>
-      <c r="K74" s="2">
+      <c r="N74" s="2">
         <v>0.19686336815357208</v>
       </c>
-      <c r="L74" s="1">
+      <c r="O74" s="1">
         <v>26</v>
-      </c>
-      <c r="M74" s="2">
-        <v>-0.16382211446762085</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.23625512421131134</v>
-      </c>
-      <c r="O74" s="1">
-        <v>18</v>
       </c>
       <c r="P74" s="2">
         <v>0.44721156358718872</v>
@@ -14693,7 +14738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -14806,7 +14851,7 @@
       <c r="BP75" s="2"/>
       <c r="BQ75" s="1"/>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -14895,7 +14940,7 @@
       <c r="BP76" s="2"/>
       <c r="BQ76" s="1"/>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -14918,22 +14963,22 @@
         <v>10</v>
       </c>
       <c r="J77" s="2">
+        <v>-7.5180582702159882E-2</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.30174130201339722</v>
+      </c>
+      <c r="L77" s="1">
+        <v>11</v>
+      </c>
+      <c r="M77" s="2">
         <v>0.17899784445762634</v>
       </c>
-      <c r="K77" s="2">
+      <c r="N77" s="2">
         <v>0.29021084308624268</v>
       </c>
-      <c r="L77" s="1">
+      <c r="O77" s="1">
         <v>12</v>
-      </c>
-      <c r="M77" s="2">
-        <v>-7.5180582702159882E-2</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0.30174130201339722</v>
-      </c>
-      <c r="O77" s="1">
-        <v>11</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -15050,7 +15095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -15205,7 +15250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -15348,7 +15393,7 @@
       <c r="BP79" s="2"/>
       <c r="BQ79" s="1"/>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -15443,7 +15488,7 @@
       <c r="BP80" s="2"/>
       <c r="BQ80" s="1"/>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -15520,7 +15565,7 @@
       <c r="BP81" s="2"/>
       <c r="BQ81" s="1"/>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -15549,22 +15594,22 @@
         <v>19</v>
       </c>
       <c r="J82" s="2">
+        <v>-0.21798573434352875</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0.33371245861053467</v>
+      </c>
+      <c r="L82" s="1">
+        <v>9</v>
+      </c>
+      <c r="M82" s="2">
         <v>-0.10716819763183594</v>
       </c>
-      <c r="K82" s="2">
+      <c r="N82" s="2">
         <v>0.2898898720741272</v>
       </c>
-      <c r="L82" s="1">
+      <c r="O82" s="1">
         <v>12</v>
-      </c>
-      <c r="M82" s="2">
-        <v>-0.21798573434352875</v>
-      </c>
-      <c r="N82" s="2">
-        <v>0.33371245861053467</v>
-      </c>
-      <c r="O82" s="1">
-        <v>9</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -15705,7 +15750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -15830,7 +15875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -15931,7 +15976,7 @@
       <c r="BP84" s="2"/>
       <c r="BQ84" s="1"/>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -15960,22 +16005,22 @@
         <v>68</v>
       </c>
       <c r="J85" s="2">
+        <v>0.10434217751026154</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0.13444390892982483</v>
+      </c>
+      <c r="L85" s="1">
+        <v>56</v>
+      </c>
+      <c r="M85" s="2">
         <v>-1.9114509224891663E-2</v>
       </c>
-      <c r="K85" s="2">
+      <c r="N85" s="2">
         <v>0.13176015019416809</v>
       </c>
-      <c r="L85" s="1">
+      <c r="O85" s="1">
         <v>58</v>
-      </c>
-      <c r="M85" s="2">
-        <v>0.10434217751026154</v>
-      </c>
-      <c r="N85" s="2">
-        <v>0.13444390892982483</v>
-      </c>
-      <c r="O85" s="1">
-        <v>56</v>
       </c>
       <c r="P85" s="2">
         <v>-0.23107065260410309</v>
@@ -16128,7 +16173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -16157,22 +16202,22 @@
         <v>27</v>
       </c>
       <c r="J86" s="2">
+        <v>0.21230301260948181</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0.15156851708889008</v>
+      </c>
+      <c r="L86" s="1">
+        <v>44</v>
+      </c>
+      <c r="M86" s="2">
         <v>0.27855205535888672</v>
       </c>
-      <c r="K86" s="2">
+      <c r="N86" s="2">
         <v>0.12489454448223114</v>
       </c>
-      <c r="L86" s="1">
+      <c r="O86" s="1">
         <v>65</v>
-      </c>
-      <c r="M86" s="2">
-        <v>0.21230301260948181</v>
-      </c>
-      <c r="N86" s="2">
-        <v>0.15156851708889008</v>
-      </c>
-      <c r="O86" s="1">
-        <v>44</v>
       </c>
       <c r="P86" s="2">
         <v>0.10045569390058517</v>
@@ -16325,7 +16370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -16354,22 +16399,22 @@
         <v>95</v>
       </c>
       <c r="J87" s="2">
+        <v>-5.4898269474506378E-2</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0.13668051362037659</v>
+      </c>
+      <c r="L87" s="1">
+        <v>55</v>
+      </c>
+      <c r="M87" s="2">
         <v>0.2173130065202713</v>
       </c>
-      <c r="K87" s="2">
+      <c r="N87" s="2">
         <v>0.11047515273094177</v>
       </c>
-      <c r="L87" s="1">
+      <c r="O87" s="1">
         <v>83</v>
-      </c>
-      <c r="M87" s="2">
-        <v>-5.4898269474506378E-2</v>
-      </c>
-      <c r="N87" s="2">
-        <v>0.13668051362037659</v>
-      </c>
-      <c r="O87" s="1">
-        <v>55</v>
       </c>
       <c r="P87" s="2">
         <v>0.53511416912078857</v>
@@ -16528,7 +16573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -16551,22 +16596,22 @@
         <v>11</v>
       </c>
       <c r="J88" s="2">
+        <v>2.0408269017934799E-2</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0.27789655327796936</v>
+      </c>
+      <c r="L88" s="1">
+        <v>13</v>
+      </c>
+      <c r="M88" s="2">
         <v>0.27538448572158813</v>
       </c>
-      <c r="K88" s="2">
+      <c r="N88" s="2">
         <v>0.25963017344474792</v>
       </c>
-      <c r="L88" s="1">
+      <c r="O88" s="1">
         <v>15</v>
-      </c>
-      <c r="M88" s="2">
-        <v>2.0408269017934799E-2</v>
-      </c>
-      <c r="N88" s="2">
-        <v>0.27789655327796936</v>
-      </c>
-      <c r="O88" s="1">
-        <v>13</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -16701,7 +16746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -16723,18 +16768,18 @@
       <c r="I89" s="1">
         <v>6</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="2">
         <v>-0.28248944878578186</v>
       </c>
-      <c r="K89" s="2">
+      <c r="N89" s="2">
         <v>0.44807142019271851</v>
       </c>
-      <c r="L89" s="1">
+      <c r="O89" s="1">
         <v>5</v>
       </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="1"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="1"/>
@@ -16880,7 +16925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -16909,22 +16954,22 @@
         <v>30</v>
       </c>
       <c r="J90" s="2">
+        <v>-0.15350139141082764</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.25851085782051086</v>
+      </c>
+      <c r="L90" s="1">
+        <v>15</v>
+      </c>
+      <c r="M90" s="2">
         <v>-6.3420020043849945E-2</v>
       </c>
-      <c r="K90" s="2">
+      <c r="N90" s="2">
         <v>0.23020116984844208</v>
       </c>
-      <c r="L90" s="1">
+      <c r="O90" s="1">
         <v>19</v>
-      </c>
-      <c r="M90" s="2">
-        <v>-0.15350139141082764</v>
-      </c>
-      <c r="N90" s="2">
-        <v>0.25851085782051086</v>
-      </c>
-      <c r="O90" s="1">
-        <v>15</v>
       </c>
       <c r="P90" s="2">
         <v>-0.24712392687797546</v>
@@ -17071,7 +17116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -17100,22 +17145,22 @@
         <v>169</v>
       </c>
       <c r="J91" s="2">
+        <v>7.8317277133464813E-2</v>
+      </c>
+      <c r="K91" s="2">
+        <v>8.1679657101631165E-2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>154</v>
+      </c>
+      <c r="M91" s="2">
         <v>0.14286020398139954</v>
       </c>
-      <c r="K91" s="2">
+      <c r="N91" s="2">
         <v>7.2609640657901764E-2</v>
       </c>
-      <c r="L91" s="1">
+      <c r="O91" s="1">
         <v>195</v>
-      </c>
-      <c r="M91" s="2">
-        <v>7.8317277133464813E-2</v>
-      </c>
-      <c r="N91" s="2">
-        <v>8.1679657101631165E-2</v>
-      </c>
-      <c r="O91" s="1">
-        <v>154</v>
       </c>
       <c r="P91" s="2">
         <v>0.10919955372810364</v>
@@ -17274,7 +17319,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -17303,22 +17348,22 @@
         <v>222</v>
       </c>
       <c r="J92" s="2">
+        <v>0.13126310706138611</v>
+      </c>
+      <c r="K92" s="2">
+        <v>3.0979219824075699E-2</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1188</v>
+      </c>
+      <c r="M92" s="2">
         <v>0.19661271572113037</v>
       </c>
-      <c r="K92" s="2">
+      <c r="N92" s="2">
         <v>3.7289582192897797E-2</v>
       </c>
-      <c r="L92" s="1">
+      <c r="O92" s="1">
         <v>792</v>
-      </c>
-      <c r="M92" s="2">
-        <v>0.13126310706138611</v>
-      </c>
-      <c r="N92" s="2">
-        <v>3.0979219824075699E-2</v>
-      </c>
-      <c r="O92" s="1">
-        <v>1188</v>
       </c>
       <c r="P92" s="2">
         <v>0.1618645191192627</v>
@@ -17483,7 +17528,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -17512,22 +17557,22 @@
         <v>186</v>
       </c>
       <c r="J93" s="2">
+        <v>0.15194815397262573</v>
+      </c>
+      <c r="K93" s="2">
+        <v>4.2677544057369232E-2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>591</v>
+      </c>
+      <c r="M93" s="2">
         <v>0.25503426790237427</v>
       </c>
-      <c r="K93" s="2">
+      <c r="N93" s="2">
         <v>4.901755228638649E-2</v>
       </c>
-      <c r="L93" s="1">
+      <c r="O93" s="1">
         <v>438</v>
-      </c>
-      <c r="M93" s="2">
-        <v>0.15194815397262573</v>
-      </c>
-      <c r="N93" s="2">
-        <v>4.2677544057369232E-2</v>
-      </c>
-      <c r="O93" s="1">
-        <v>591</v>
       </c>
       <c r="P93" s="2">
         <v>6.1569560319185257E-2</v>
@@ -17692,7 +17737,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.15">
       <c r="F94" s="1">
         <f>MIN(F2:F93)</f>
         <v>6</v>

--- a/Atlas application All heatmaps ver2/data/dataIDconf.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataIDconf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/c870b7ff5e4342f7969b500139a3da9c/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C505545-71D5-0044-8D54-1A6095940C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A9673C-8BD3-4A4D-980D-F06AD20E29AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17140" yWindow="500" windowWidth="16460" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
   <si>
     <t>date</t>
   </si>
@@ -323,478 +323,349 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>mental</t>
-  </si>
-  <si>
-    <t>mental_organic</t>
-  </si>
-  <si>
-    <t>mental_psychoactive</t>
-  </si>
-  <si>
-    <t>mental_schizo_spectrum</t>
-  </si>
-  <si>
-    <t>mental_schizo</t>
-  </si>
-  <si>
-    <t>mental_mood</t>
-  </si>
-  <si>
-    <t>mental_mood_bipolar</t>
-  </si>
-  <si>
-    <t>mental_mood_depression</t>
-  </si>
-  <si>
-    <t>mental_neurotic</t>
-  </si>
-  <si>
-    <t>mental_neurotic_ocd</t>
-  </si>
-  <si>
-    <t>mental_behavioral</t>
-  </si>
-  <si>
-    <t>mental_behavioral_anex</t>
-  </si>
-  <si>
-    <t>mental_adult</t>
-  </si>
-  <si>
-    <t>mental_retardation</t>
-  </si>
-  <si>
-    <t>mental_development</t>
-  </si>
-  <si>
-    <t>mental_emotional</t>
-  </si>
-  <si>
-    <t>mental_emotional_adhd</t>
-  </si>
-  <si>
-    <t>mental_emotional_tic</t>
-  </si>
-  <si>
-    <t>mental_unspecified</t>
-  </si>
-  <si>
-    <t>cm_diabetes</t>
-  </si>
-  <si>
-    <t>cm_doutpreg</t>
-  </si>
-  <si>
-    <t>cm_t1d</t>
-  </si>
-  <si>
-    <t>cm_t2d</t>
-  </si>
-  <si>
-    <t>cm_dinpreg</t>
-  </si>
-  <si>
-    <t>cm_obesity</t>
-  </si>
-  <si>
-    <t>cm_hypertension</t>
-  </si>
-  <si>
-    <t>cm_hypoutpred</t>
-  </si>
-  <si>
-    <t>cm_hypinpred</t>
-  </si>
-  <si>
-    <t>cm_preeclampsia</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>bd_cns</t>
-  </si>
-  <si>
-    <t>bd_eye</t>
-  </si>
-  <si>
-    <t>bd_ear</t>
-  </si>
-  <si>
-    <t>bd_heart</t>
-  </si>
-  <si>
-    <t>bd_respiratory</t>
-  </si>
-  <si>
-    <t>bd_lip</t>
-  </si>
-  <si>
-    <t>bd_digestive</t>
-  </si>
-  <si>
-    <t>bd_genital</t>
-  </si>
-  <si>
-    <t>bd_urinary</t>
-  </si>
-  <si>
-    <t>bd_musculoskeletal</t>
-  </si>
-  <si>
-    <t>bd_skin</t>
-  </si>
-  <si>
-    <t>bd_other</t>
-  </si>
-  <si>
-    <t>bd_asdspecific</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>ne_inflammatory</t>
-  </si>
-  <si>
-    <t>ne_systemic</t>
-  </si>
-  <si>
-    <t>ne_extrapyramid</t>
-  </si>
-  <si>
-    <t>ne_otherdegene</t>
-  </si>
-  <si>
-    <t>ne_demyelinating</t>
-  </si>
-  <si>
-    <t>ne_episodic</t>
-  </si>
-  <si>
-    <t>ne_episodic_epilep</t>
-  </si>
-  <si>
-    <t>ne_nerve</t>
-  </si>
-  <si>
-    <t>ne_polynepathi</t>
-  </si>
-  <si>
-    <t>ne_myoneural</t>
-  </si>
-  <si>
-    <t>ne_cerebralpal</t>
-  </si>
-  <si>
-    <t>ne_other</t>
-  </si>
-  <si>
-    <t>ai_t1d</t>
-  </si>
-  <si>
-    <t>ai_thyrotoxico</t>
-  </si>
-  <si>
-    <t>ai_thyroiditis</t>
-  </si>
-  <si>
-    <t>ai_adrenocortical</t>
-  </si>
-  <si>
-    <t>ai_rheumatoid</t>
-  </si>
-  <si>
-    <t>ai_juvenile</t>
-  </si>
-  <si>
-    <t>ai_dermatopolymyo</t>
-  </si>
-  <si>
-    <t>ai_polymyalgia</t>
-  </si>
-  <si>
-    <t>ai_scleroderma</t>
-  </si>
-  <si>
-    <t>ai_erythemato</t>
-  </si>
-  <si>
-    <t>ai_sjogren</t>
-  </si>
-  <si>
-    <t>ai_spondili</t>
-  </si>
-  <si>
-    <t>ai_granulomato</t>
-  </si>
-  <si>
-    <t>ai_celiac</t>
-  </si>
-  <si>
-    <t>ai_crohn</t>
-  </si>
-  <si>
-    <t>ai_colitis</t>
-  </si>
-  <si>
-    <t>ai_pernicious</t>
-  </si>
-  <si>
-    <t>ai_hemolytic</t>
-  </si>
-  <si>
-    <t>ai_purpura</t>
-  </si>
-  <si>
-    <t>ai_sclerosis</t>
-  </si>
-  <si>
-    <t>ai_guillainbar</t>
-  </si>
-  <si>
-    <t>ai_gravis</t>
-  </si>
-  <si>
-    <t>ai_pemphigus</t>
-  </si>
-  <si>
-    <t>ai_psoriasis</t>
-  </si>
-  <si>
-    <t>ai_areata</t>
-  </si>
-  <si>
-    <t>ai_vitiligo</t>
-  </si>
-  <si>
-    <t>ai_endocrine</t>
-  </si>
-  <si>
-    <t>ai_connective</t>
-  </si>
-  <si>
-    <t>ai_gastrointest</t>
-  </si>
-  <si>
-    <t>ai_blood</t>
-  </si>
-  <si>
-    <t>ai_nervous</t>
-  </si>
-  <si>
-    <t>ai_skin</t>
-  </si>
-  <si>
-    <t>autoimmune</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>allergies</t>
-  </si>
-  <si>
-    <t>child_0_est</t>
-  </si>
-  <si>
-    <t>child_0_se</t>
-  </si>
-  <si>
-    <t>child_0_n</t>
-  </si>
-  <si>
-    <t>child_1_est</t>
-  </si>
-  <si>
-    <t>child_1_se</t>
-  </si>
-  <si>
-    <t>child_1_n</t>
-  </si>
-  <si>
-    <t>sib1_sex0_est</t>
-  </si>
-  <si>
-    <t>sib1_sex0_se</t>
-  </si>
-  <si>
-    <t>sib1_sex0_n</t>
-  </si>
-  <si>
-    <t>sib1_sex1_est</t>
-  </si>
-  <si>
-    <t>sib1_sex1_se</t>
-  </si>
-  <si>
-    <t>sib1_sex1_n</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex0_est</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex0_se</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex0_n</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex0_est</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex0_se</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex0_n</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex1_est</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex1_se</t>
-  </si>
-  <si>
-    <t>maternal_sib0_sex1_n</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex1_est</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex1_se</t>
-  </si>
-  <si>
-    <t>paternal_sib0_sex1_n</t>
-  </si>
-  <si>
-    <t>m_est</t>
-  </si>
-  <si>
-    <t>m_se</t>
-  </si>
-  <si>
-    <t>m_n</t>
-  </si>
-  <si>
-    <t>f_est</t>
-  </si>
-  <si>
-    <t>f_se</t>
-  </si>
-  <si>
-    <t>f_n</t>
-  </si>
-  <si>
-    <t>mm_est</t>
-  </si>
-  <si>
-    <t>mm_se</t>
-  </si>
-  <si>
-    <t>mm_n</t>
-  </si>
-  <si>
-    <t>mf_est</t>
-  </si>
-  <si>
-    <t>mf_se</t>
-  </si>
-  <si>
-    <t>mf_n</t>
-  </si>
-  <si>
-    <t>fm_est</t>
-  </si>
-  <si>
-    <t>fm_se</t>
-  </si>
-  <si>
-    <t>fm_n</t>
-  </si>
-  <si>
-    <t>ff_est</t>
-  </si>
-  <si>
-    <t>ff_se</t>
-  </si>
-  <si>
-    <t>ff_n</t>
-  </si>
-  <si>
-    <t>mua_0_est</t>
-  </si>
-  <si>
-    <t>mua_0_se</t>
-  </si>
-  <si>
-    <t>mua_0_n</t>
-  </si>
-  <si>
-    <t>mua_1_est</t>
-  </si>
-  <si>
-    <t>mua_1_se</t>
-  </si>
-  <si>
-    <t>mua_1_n</t>
-  </si>
-  <si>
-    <t>pua_0_est</t>
-  </si>
-  <si>
-    <t>pua_0_se</t>
-  </si>
-  <si>
-    <t>pua_0_n</t>
-  </si>
-  <si>
-    <t>pua_1_est</t>
-  </si>
-  <si>
-    <t>pua_1_se</t>
-  </si>
-  <si>
-    <t>pua_1_n</t>
-  </si>
-  <si>
-    <t>mcou_0_est</t>
-  </si>
-  <si>
-    <t>mcou_0_se</t>
-  </si>
-  <si>
-    <t>mcou_0_n</t>
-  </si>
-  <si>
-    <t>mcou_1_est</t>
-  </si>
-  <si>
-    <t>mcou_1_se</t>
-  </si>
-  <si>
-    <t>mcou_1_n</t>
-  </si>
-  <si>
-    <t>pcou_0_est</t>
-  </si>
-  <si>
-    <t>pcou_0_se</t>
-  </si>
-  <si>
-    <t>pcou_0_n</t>
-  </si>
-  <si>
-    <t>pcou_1_est</t>
-  </si>
-  <si>
-    <t>pcou_1_se</t>
-  </si>
-  <si>
-    <t>pcou_1_n</t>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Any mental</t>
+  </si>
+  <si>
+    <t>Organic mental</t>
+  </si>
+  <si>
+    <t>Psychoactive sub use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schizophrenia spectrum </t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any mood </t>
+  </si>
+  <si>
+    <t>Bipolar disorder</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Neurotic/stress disorder</t>
+  </si>
+  <si>
+    <t>OCD</t>
+  </si>
+  <si>
+    <t>Behav synd-physiol</t>
+  </si>
+  <si>
+    <t>Anorexia nervosa</t>
+  </si>
+  <si>
+    <t>Adult personality disorder</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>Psych dev dis.not ASD</t>
+  </si>
+  <si>
+    <t>Behav dis-child onset</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Tic disorder</t>
+  </si>
+  <si>
+    <t>Mental-unspecified</t>
+  </si>
+  <si>
+    <t>Any diabetes</t>
+  </si>
+  <si>
+    <t>Diabetes outside preg</t>
+  </si>
+  <si>
+    <t>Type 1 diabetes</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes</t>
+  </si>
+  <si>
+    <t>Chronic+gest diab</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Any hypertension</t>
+  </si>
+  <si>
+    <t>Hyper outside preg</t>
+  </si>
+  <si>
+    <t>Chronic+gest hyper</t>
+  </si>
+  <si>
+    <t>Preeclam/eclam</t>
+  </si>
+  <si>
+    <t>Any birth defect</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>Lip</t>
+  </si>
+  <si>
+    <t>Digestive system</t>
+  </si>
+  <si>
+    <t>Genital</t>
+  </si>
+  <si>
+    <t>Urinary tract</t>
+  </si>
+  <si>
+    <t>Musculoskeletal</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Other/chromos</t>
+  </si>
+  <si>
+    <t>Chro/gene dis_ASD spe</t>
+  </si>
+  <si>
+    <t>Any neurologic</t>
+  </si>
+  <si>
+    <t>Inflammatory of CNS</t>
+  </si>
+  <si>
+    <t>Systemic atrophies</t>
+  </si>
+  <si>
+    <t>Extrapyramid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other degenerative </t>
+  </si>
+  <si>
+    <t>Demyelinating of CNS</t>
+  </si>
+  <si>
+    <t>Episodic</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Nerve disorder</t>
+  </si>
+  <si>
+    <t>Polyneuropath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myoneural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerebral palsy </t>
+  </si>
+  <si>
+    <t>Other neurologic</t>
+  </si>
+  <si>
+    <t>Thyrotoxicosis</t>
+  </si>
+  <si>
+    <t>Thyroiditis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pri adrenocortical </t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Juvenile arthritis</t>
+  </si>
+  <si>
+    <t>Dermatopolymyositis</t>
+  </si>
+  <si>
+    <t>Polymyalgia</t>
+  </si>
+  <si>
+    <t>Scleroderma</t>
+  </si>
+  <si>
+    <t>Lupus erythema</t>
+  </si>
+  <si>
+    <t>Sjogren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankylos spondil </t>
+  </si>
+  <si>
+    <t>Granulomato</t>
+  </si>
+  <si>
+    <t>Celiac</t>
+  </si>
+  <si>
+    <t>Crohn</t>
+  </si>
+  <si>
+    <t>Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>Pernicious anem</t>
+  </si>
+  <si>
+    <t>Hemolytic anem</t>
+  </si>
+  <si>
+    <t>Purpura</t>
+  </si>
+  <si>
+    <t>Multiple sclerosis</t>
+  </si>
+  <si>
+    <t>Guillain-Bar</t>
+  </si>
+  <si>
+    <t>Myasthen grav</t>
+  </si>
+  <si>
+    <t>Pemphigus</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Alopecia areata</t>
+  </si>
+  <si>
+    <t>Vitiligo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any endocrine </t>
+  </si>
+  <si>
+    <t>Any connective</t>
+  </si>
+  <si>
+    <t>Any gastrointest</t>
+  </si>
+  <si>
+    <t>Any blood</t>
+  </si>
+  <si>
+    <t>Any nervous</t>
+  </si>
+  <si>
+    <t>Any skin</t>
+  </si>
+  <si>
+    <t>Any autoimmune</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>Index child (f) log(HR)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Index child (m) log(HR)</t>
+  </si>
+  <si>
+    <t>Brother log(HR)</t>
+  </si>
+  <si>
+    <t>Sister log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. half sister log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. half sister log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. half brother log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. half brother log(HR)</t>
+  </si>
+  <si>
+    <t>Mother log(HR)</t>
+  </si>
+  <si>
+    <t>Father log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. grandmother log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. grandfather log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. grandmother log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. grandfather log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. aunt log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. uncle log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. aunt log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. uncle log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. cousin (f) log(HR)</t>
+  </si>
+  <si>
+    <t>Mat. cousin (m) log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. cousin (f) log(HR)</t>
+  </si>
+  <si>
+    <t>Pat. cousin (m) log(HR)</t>
   </si>
 </sst>
 </file>
@@ -804,10 +675,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,13 +709,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1187,12 +1069,12 @@
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
     <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:69" ht="64" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,203 +1084,203 @@
       <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" t="s">
-        <v>197</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AI1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AL1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AO1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AR1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AU1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AX1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="V1" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BD1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="X1" t="s">
+      <c r="BG1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BJ1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BM1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AA1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>254</v>
+      <c r="BP1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.15">
@@ -12374,7 +12256,7 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D59" s="2">
         <v>3.5831150598824024E-3</v>
@@ -12571,7 +12453,7 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2">
         <v>0.71426123380661011</v>
@@ -12744,7 +12626,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" s="2">
         <v>2.9462685808539391E-2</v>
@@ -12881,7 +12763,7 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -13012,7 +12894,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="2">
         <v>0.5590813159942627</v>
@@ -13209,7 +13091,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" s="2">
         <v>1.2435556389391422E-2</v>
@@ -13394,7 +13276,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -13489,7 +13371,7 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -13590,7 +13472,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -13697,7 +13579,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -13828,7 +13710,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -13941,7 +13823,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -14084,7 +13966,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -14161,7 +14043,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="2">
         <v>0.3076687753200531</v>
@@ -14352,7 +14234,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="2">
         <v>4.2484603822231293E-2</v>
@@ -14549,7 +14431,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" s="2">
         <v>-0.39373716711997986</v>
@@ -14746,7 +14628,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -14859,7 +14741,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -14948,7 +14830,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -15103,7 +14985,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -15258,7 +15140,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -15401,7 +15283,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -15496,7 +15378,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -15573,7 +15455,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D82" s="2">
         <v>0.29487410187721252</v>
@@ -15758,7 +15640,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -15883,7 +15765,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -15984,7 +15866,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D85" s="2">
         <v>0.17487220466136932</v>
@@ -16181,7 +16063,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" s="2">
         <v>0.35087469220161438</v>
@@ -16378,7 +16260,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D87" s="2">
         <v>-2.1576695144176483E-2</v>
@@ -16581,7 +16463,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -16754,7 +16636,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -16933,7 +16815,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" s="2">
         <v>3.7071608006954193E-2</v>
@@ -17124,7 +17006,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D91" s="2">
         <v>0.21979592740535736</v>
@@ -17327,7 +17209,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D92" s="2">
         <v>-0.20496605336666107</v>
@@ -17536,7 +17418,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D93" s="2">
         <v>-0.14114956557750702</v>
